--- a/Data/grades.xlsx
+++ b/Data/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0CEB56-FC70-7444-8503-C9E67124F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7AE596-E2BE-5840-89FB-B9079F7B3754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>Luis Stevenson</t>
   </si>
   <si>
-    <t>James Tran MD</t>
-  </si>
-  <si>
     <t>Melissa Hancock</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>John Moore</t>
   </si>
   <si>
-    <t>Angela Oneill DDS</t>
-  </si>
-  <si>
     <t>Renee Austin</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>Mark Martin</t>
   </si>
   <si>
-    <t>Ms. Samantha Steele</t>
-  </si>
-  <si>
     <t>Kimberly Brown</t>
   </si>
   <si>
@@ -266,9 +257,6 @@
     <t>Jill Lopez</t>
   </si>
   <si>
-    <t>Carrie Trujillo MD</t>
-  </si>
-  <si>
     <t>Angela Mora</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t>John Ramirez</t>
   </si>
   <si>
-    <t>Dr. Jonathan Cook</t>
-  </si>
-  <si>
     <t>Michael Miller</t>
   </si>
   <si>
@@ -323,9 +308,6 @@
     <t>Donald Blevins</t>
   </si>
   <si>
-    <t>Mrs. Mary Sampson MD</t>
-  </si>
-  <si>
     <t>Lawrence Rodriguez</t>
   </si>
   <si>
@@ -375,6 +357,24 @@
   </si>
   <si>
     <t>Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Oneill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Tran </t>
+  </si>
+  <si>
+    <t>Jonathan Cook</t>
+  </si>
+  <si>
+    <t>Mary Sampson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrie Trujillo </t>
+  </si>
+  <si>
+    <t>Samantha Steele</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,16 +1231,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>3.9720116263042025</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1262,13 +1262,13 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
         <v>1.4403956434020282</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1276,13 +1276,13 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>3.748973201560891</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1296,7 +1296,7 @@
         <v>1.8615635309166527</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,13 +1304,13 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>3.8607420618218269</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1318,13 +1318,13 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>1.4733871231798088</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>2.8755932797216377</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1352,7 +1352,7 @@
         <v>1.2734591907329258</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
         <v>3.3960811746621458</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,13 +1374,13 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1">
         <v>2.3707341584617145</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>3.6307443868909748</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,13 +1402,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1">
         <v>3.5184059702554773</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>2.6987100499774952</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1436,7 +1436,7 @@
         <v>3.5742257843180303</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,13 +1444,13 @@
         <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1">
         <v>2.0042887973751786</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>2.6500909226181628</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,13 +1472,13 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1">
         <v>2.5810274842266039</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1492,7 +1492,7 @@
         <v>3.7466082719582969</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>1.9811113590757843</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,13 +1514,13 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1">
         <v>1.3765356762623739</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,13 +1528,13 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1">
         <v>1.5992973699724899</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
         <v>1.3923620780501742</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1556,13 +1556,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>2.9418649727692312</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,13 +1570,13 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1">
         <v>3.700200197692638</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1590,7 +1590,7 @@
         <v>3.1062964166635174</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,13 +1598,13 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1">
         <v>2.7473913643027084</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,13 +1612,13 @@
         <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1">
         <v>3.9064884950002621</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1632,7 +1632,7 @@
         <v>3.3336298972331964</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1640,13 +1640,13 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1">
         <v>2.0272977918411286</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,13 +1654,13 @@
         <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1">
         <v>1.6489229809638626</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,13 +1668,13 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1">
         <v>3.2632431597764406</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,13 +1682,13 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1">
         <v>2.1903956275501182</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1696,13 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1">
         <v>3.3219888642760598</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>1.8463229308994675</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>3.6453478682401519</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,7 +1744,7 @@
         <v>3.7233787654317521</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,7 +1758,7 @@
         <v>3.6057100853457431</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>2.5222920078393338</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1786,7 +1786,7 @@
         <v>1.8464153568351893</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,7 +1800,7 @@
         <v>3.1804957084016952</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1808,13 @@
         <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1">
         <v>2.1776689923030101</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,7 +1828,7 @@
         <v>3.3581139190448552</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,13 +1836,13 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1">
         <v>1.2543432119743341</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1850,13 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1">
         <v>2.5332733732729995</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,13 +1864,13 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1">
         <v>3.1050911811002297</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,13 +1878,13 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1">
         <v>1.7917965673031511</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>1.1979772380440052</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,7 +1912,7 @@
         <v>2.1441902228287026</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,13 +1920,13 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1">
         <v>1.1579663644465525</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,13 +1934,13 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1">
         <v>3.4734481104385346</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>2.7003350507915109</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,7 +1968,7 @@
         <v>3.1677228872392398</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
         <v>2.2293917811575188</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,13 +1990,13 @@
         <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C55" s="1">
         <v>1.4069818664325542</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1">
         <v>2.2227387506688236</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
         <v>1.5205285685535881</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,13 +2032,13 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1">
         <v>1.6156836371845797</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,7 +2052,7 @@
         <v>2.5145983264048408</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,7 +2066,7 @@
         <v>2.0467089504502334</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,13 +2074,13 @@
         <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1">
         <v>1.3915628936508928</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2088,13 +2088,13 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1">
         <v>3.0787678173985213</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,7 +2108,7 @@
         <v>1.3920011694968464</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,7 +2122,7 @@
         <v>1.0316946757876571</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>3.006357667241347</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,7 +2150,7 @@
         <v>1.5105384321980528</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2158,13 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C67" s="1">
         <v>2.0306473912862355</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
         <v>3.7491901327195767</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,13 +2186,13 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C69" s="1">
         <v>3.4284820959101636</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,13 +2200,13 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="1">
         <v>2.2669320819686511</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2214,13 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C71" s="1">
         <v>1.4431651734149984</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2228,13 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="1">
         <v>2.6034049529420802</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,13 +2242,13 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1">
         <v>2.481618345330161</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2256,13 @@
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="1">
         <v>2.7923581752109703</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,13 +2270,13 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" s="1">
         <v>2.1036636022214372</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2284,13 @@
         <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1">
         <v>1.2975462148758534</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>2.1047842052549948</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,7 +2318,7 @@
         <v>3.0422474550530891</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2332,7 +2332,7 @@
         <v>2.8616321857355889</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,7 +2346,7 @@
         <v>3.4242613836748692</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2360,7 +2360,7 @@
         <v>2.2824076532351336</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,13 +2368,13 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1">
         <v>2.6627342987345219</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,13 +2382,13 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>2.3455431655528312</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,7 +2402,7 @@
         <v>1.8437432749698206</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C85" s="1">
         <v>3.3420136497511295</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,13 +2424,13 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C86" s="1">
         <v>2.2679170452765298</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,7 +2444,7 @@
         <v>1.3629502051557219</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,7 +2458,7 @@
         <v>1.6570066817139129</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,13 +2466,13 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1">
         <v>3.7477995824671968</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,7 +2486,7 @@
         <v>2.4626594720588595</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2500,7 +2500,7 @@
         <v>2.4674192590048323</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2508,13 +2508,13 @@
         <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C92" s="1">
         <v>1.5592340637611233</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
         <v>3.1214676209529681</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C94" s="1">
         <v>2.0808094245876525</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,13 +2550,13 @@
         <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C95" s="1">
         <v>2.794035632962951</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,7 +2570,7 @@
         <v>1.7267319993875143</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,7 +2584,7 @@
         <v>3.0960565041807517</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,13 +2592,13 @@
         <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C98" s="1">
         <v>1.3027311272558246</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>3.2887493575588431</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,13 +2620,13 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C100" s="1">
         <v>2.5608034676585545</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2640,7 +2640,7 @@
         <v>1.4519625656641915</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Data/grades.xlsx
+++ b/Data/grades.xlsx
@@ -2,376 +2,363 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7AE596-E2BE-5840-89FB-B9079F7B3754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ABFFB0E-580D-084B-94C9-42233E66333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16720" xr2:uid="{2B85907A-0B02-1448-B12F-135ED482278A}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="grades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Rose Rios</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Ian Brown</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Stanley Dean</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Stephanie Henderson</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Angela Mora</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Mark Martin</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Jennifer Perkins</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>William Stewart</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Eric Moore</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Kenneth Rollins</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Robert Gonzalez</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Donald Blevins</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>Rachel Salinas</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Sandra Jones</t>
+  </si>
+  <si>
+    <t>Stephanie Stevenson</t>
+  </si>
+  <si>
+    <t>Tamara Lowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Oneill </t>
+  </si>
+  <si>
+    <t>Kari Estrada</t>
+  </si>
+  <si>
+    <t>Patrick Thomas</t>
+  </si>
+  <si>
+    <t>Derrick Jones</t>
+  </si>
+  <si>
+    <t>Rebecca Kelly</t>
+  </si>
+  <si>
+    <t>Jonathon Thomas</t>
+  </si>
+  <si>
+    <t>Peter Hansen</t>
+  </si>
+  <si>
+    <t>Kimberly Brown</t>
+  </si>
+  <si>
+    <t>Chase Sanders</t>
+  </si>
+  <si>
+    <t>Jill Lopez</t>
+  </si>
+  <si>
+    <t>Michael Miller</t>
+  </si>
+  <si>
+    <t>Jose Barnes</t>
+  </si>
+  <si>
+    <t>Ruben Price</t>
+  </si>
+  <si>
+    <t>Jamie Knight</t>
+  </si>
+  <si>
+    <t>Robert Davidson</t>
+  </si>
+  <si>
+    <t>Megan Brown</t>
+  </si>
+  <si>
+    <t>Christopher Garrison</t>
+  </si>
+  <si>
+    <t>Mark Hester</t>
+  </si>
+  <si>
+    <t>Renee Marquez</t>
+  </si>
+  <si>
+    <t>Luis Stevenson</t>
+  </si>
+  <si>
+    <t>Melissa Lewis</t>
+  </si>
+  <si>
+    <t>Shawn Gilbert</t>
+  </si>
+  <si>
+    <t>Brittany Jones</t>
+  </si>
+  <si>
+    <t>Martin Mason</t>
+  </si>
+  <si>
+    <t>Kristy Gray</t>
+  </si>
+  <si>
+    <t>Claudia Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Tran </t>
+  </si>
+  <si>
+    <t>Christina Osborne</t>
+  </si>
+  <si>
+    <t>Christina Irwin</t>
+  </si>
+  <si>
+    <t>Eric Ellis</t>
+  </si>
+  <si>
+    <t>Matthew Ward</t>
+  </si>
+  <si>
+    <t>Karen Williams</t>
+  </si>
+  <si>
+    <t>John Young</t>
+  </si>
+  <si>
+    <t>Kimberly Hayes</t>
+  </si>
+  <si>
     <t>Nicole Allen</t>
   </si>
   <si>
+    <t>Ricardo Aguilar</t>
+  </si>
+  <si>
+    <t>Donald Ayala</t>
+  </si>
+  <si>
+    <t>Jacob Martinez</t>
+  </si>
+  <si>
+    <t>Dana Hodge</t>
+  </si>
+  <si>
+    <t>Matthew Ortega</t>
+  </si>
+  <si>
+    <t>Summer Baker</t>
+  </si>
+  <si>
+    <t>Lisa Chen</t>
+  </si>
+  <si>
+    <t>Jonathan Cook</t>
+  </si>
+  <si>
+    <t>Lisa Lewis</t>
+  </si>
+  <si>
+    <t>Eric Myers</t>
+  </si>
+  <si>
+    <t>Julie Stuart</t>
+  </si>
+  <si>
+    <t>Chelsea Flores</t>
+  </si>
+  <si>
+    <t>Judy Hunt</t>
+  </si>
+  <si>
+    <t>Phyllis Johnson</t>
+  </si>
+  <si>
+    <t>Daniel Benson</t>
+  </si>
+  <si>
+    <t>Mary Sampson</t>
+  </si>
+  <si>
+    <t>Karen Davies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrie Trujillo </t>
+  </si>
+  <si>
+    <t>Renee Austin</t>
+  </si>
+  <si>
+    <t>Jennifer Bray</t>
+  </si>
+  <si>
+    <t>Melissa Hancock</t>
+  </si>
+  <si>
+    <t>Richard Coleman</t>
+  </si>
+  <si>
+    <t>Linda Dalton</t>
+  </si>
+  <si>
+    <t>Rhonda Wilcox</t>
+  </si>
+  <si>
+    <t>David Ortiz</t>
+  </si>
+  <si>
     <t>Anthony Martinez</t>
   </si>
   <si>
-    <t>Shawn Gilbert</t>
-  </si>
-  <si>
-    <t>Eric Ellis</t>
-  </si>
-  <si>
-    <t>Chelsea Flores</t>
+    <t>Joshua Hughes</t>
+  </si>
+  <si>
+    <t>Cynthia Byrd</t>
+  </si>
+  <si>
+    <t>Lawrence Rodriguez</t>
+  </si>
+  <si>
+    <t>John Moore</t>
+  </si>
+  <si>
+    <t>Barbara Tran</t>
+  </si>
+  <si>
+    <t>Mark Hines</t>
+  </si>
+  <si>
+    <t>Joyce Rivera</t>
+  </si>
+  <si>
+    <t>Derek Knight</t>
+  </si>
+  <si>
+    <t>Jonathan Coleman</t>
+  </si>
+  <si>
+    <t>John Ramirez</t>
+  </si>
+  <si>
+    <t>Alexandra Green</t>
   </si>
   <si>
     <t>Karen Carson</t>
   </si>
   <si>
-    <t>Rhonda Wilcox</t>
-  </si>
-  <si>
-    <t>Barbara Tran</t>
-  </si>
-  <si>
-    <t>Matthew Ward</t>
+    <t>Joseph Beck</t>
+  </si>
+  <si>
+    <t>Christopher Hernandez</t>
+  </si>
+  <si>
+    <t>William Caldwell</t>
+  </si>
+  <si>
+    <t>Diane Brown</t>
+  </si>
+  <si>
+    <t>Brenda Valentine</t>
+  </si>
+  <si>
+    <t>Grace Hoffman</t>
   </si>
   <si>
     <t>Joshua Ware</t>
-  </si>
-  <si>
-    <t>William Stewart</t>
-  </si>
-  <si>
-    <t>Jonathon Thomas</t>
-  </si>
-  <si>
-    <t>David Ortiz</t>
-  </si>
-  <si>
-    <t>Rachel Salinas</t>
-  </si>
-  <si>
-    <t>Lisa Chen</t>
-  </si>
-  <si>
-    <t>Kari Estrada</t>
-  </si>
-  <si>
-    <t>Alexandra Green</t>
-  </si>
-  <si>
-    <t>Stephanie Henderson</t>
-  </si>
-  <si>
-    <t>Diane Brown</t>
-  </si>
-  <si>
-    <t>Dana Hodge</t>
-  </si>
-  <si>
-    <t>Rose Rios</t>
-  </si>
-  <si>
-    <t>Mark Hester</t>
-  </si>
-  <si>
-    <t>Julie Stuart</t>
-  </si>
-  <si>
-    <t>Kristy Gray</t>
-  </si>
-  <si>
-    <t>Ricardo Aguilar</t>
-  </si>
-  <si>
-    <t>Jonathan Coleman</t>
-  </si>
-  <si>
-    <t>Cynthia Byrd</t>
-  </si>
-  <si>
-    <t>Kimberly Hayes</t>
-  </si>
-  <si>
-    <t>Joshua Hughes</t>
-  </si>
-  <si>
-    <t>Robert Gonzalez</t>
-  </si>
-  <si>
-    <t>Eric Moore</t>
-  </si>
-  <si>
-    <t>Sandra Jones</t>
-  </si>
-  <si>
-    <t>Jose Barnes</t>
-  </si>
-  <si>
-    <t>Renee Marquez</t>
-  </si>
-  <si>
-    <t>Eric Myers</t>
-  </si>
-  <si>
-    <t>Patrick Thomas</t>
-  </si>
-  <si>
-    <t>Brittany Jones</t>
-  </si>
-  <si>
-    <t>Brenda Valentine</t>
-  </si>
-  <si>
-    <t>Summer Baker</t>
-  </si>
-  <si>
-    <t>Tamara Lowe</t>
-  </si>
-  <si>
-    <t>Derek Knight</t>
-  </si>
-  <si>
-    <t>Chase Sanders</t>
-  </si>
-  <si>
-    <t>Daniel Benson</t>
-  </si>
-  <si>
-    <t>Jennifer Perkins</t>
-  </si>
-  <si>
-    <t>Melissa Lewis</t>
-  </si>
-  <si>
-    <t>Judy Hunt</t>
-  </si>
-  <si>
-    <t>Luis Stevenson</t>
-  </si>
-  <si>
-    <t>Melissa Hancock</t>
-  </si>
-  <si>
-    <t>Richard Coleman</t>
-  </si>
-  <si>
-    <t>Stanley Dean</t>
-  </si>
-  <si>
-    <t>Ian Brown</t>
-  </si>
-  <si>
-    <t>John Moore</t>
-  </si>
-  <si>
-    <t>Renee Austin</t>
-  </si>
-  <si>
-    <t>Christina Irwin</t>
-  </si>
-  <si>
-    <t>Mark Martin</t>
-  </si>
-  <si>
-    <t>Kimberly Brown</t>
-  </si>
-  <si>
-    <t>Mark Hines</t>
-  </si>
-  <si>
-    <t>Jacob Martinez</t>
-  </si>
-  <si>
-    <t>Christopher Hernandez</t>
-  </si>
-  <si>
-    <t>Christina Osborne</t>
-  </si>
-  <si>
-    <t>Jennifer Bray</t>
-  </si>
-  <si>
-    <t>Lisa Lewis</t>
-  </si>
-  <si>
-    <t>Joyce Rivera</t>
-  </si>
-  <si>
-    <t>Kenneth Rollins</t>
-  </si>
-  <si>
-    <t>Ruben Price</t>
-  </si>
-  <si>
-    <t>Joseph Beck</t>
-  </si>
-  <si>
-    <t>Rebecca Kelly</t>
-  </si>
-  <si>
-    <t>Claudia Wall</t>
-  </si>
-  <si>
-    <t>Christopher Garrison</t>
-  </si>
-  <si>
-    <t>John Young</t>
-  </si>
-  <si>
-    <t>Robert Davidson</t>
-  </si>
-  <si>
-    <t>William Caldwell</t>
-  </si>
-  <si>
-    <t>Jill Lopez</t>
-  </si>
-  <si>
-    <t>Angela Mora</t>
-  </si>
-  <si>
-    <t>Peter Hansen</t>
-  </si>
-  <si>
-    <t>Phyllis Johnson</t>
-  </si>
-  <si>
-    <t>Megan Brown</t>
-  </si>
-  <si>
-    <t>Martin Mason</t>
-  </si>
-  <si>
-    <t>Grace Hoffman</t>
-  </si>
-  <si>
-    <t>Matthew Ortega</t>
-  </si>
-  <si>
-    <t>Karen Davies</t>
-  </si>
-  <si>
-    <t>Derrick Jones</t>
-  </si>
-  <si>
-    <t>Stephanie Stevenson</t>
-  </si>
-  <si>
-    <t>Donald Ayala</t>
-  </si>
-  <si>
-    <t>John Ramirez</t>
-  </si>
-  <si>
-    <t>Michael Miller</t>
-  </si>
-  <si>
-    <t>Karen Williams</t>
-  </si>
-  <si>
-    <t>Jamie Knight</t>
-  </si>
-  <si>
-    <t>Linda Dalton</t>
-  </si>
-  <si>
-    <t>Donald Blevins</t>
-  </si>
-  <si>
-    <t>Lawrence Rodriguez</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>GPA</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Political Science</t>
-  </si>
-  <si>
-    <t>Philosophy</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Theatre</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angela Oneill </t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Tran </t>
-  </si>
-  <si>
-    <t>Jonathan Cook</t>
-  </si>
-  <si>
-    <t>Mary Sampson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrie Trujillo </t>
   </si>
   <si>
     <t>Samantha Steele</t>
@@ -385,21 +372,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -407,7 +394,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -415,7 +402,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -423,35 +410,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -459,7 +446,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -467,14 +454,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -482,14 +469,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -497,7 +484,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -505,14 +492,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -858,9 +845,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,9 +906,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -930,39 +916,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1014,7 +1000,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1066,7 +1052,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1125,13 +1111,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1140,6 +1119,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1204,43 +1190,56 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE15663B-9D9D-064C-8BE7-BF665E0A1924}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,13 +1247,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.9720116263042025</v>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3.97</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1262,13 +1261,13 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.4403956434020282</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1.44</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1276,13 +1275,13 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.748973201560891</v>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3.75</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1290,13 +1289,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.8615635309166527</v>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1.86</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,13 +1303,13 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.8607420618218269</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>3.86</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1318,13 +1317,13 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.4733871231798088</v>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1.47</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1332,13 +1331,13 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.8755932797216377</v>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2.88</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1346,13 +1345,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.2734591907329258</v>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1.27</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,13 +1359,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.3960811746621458</v>
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>3.4</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,13 +1373,13 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.3707341584617145</v>
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2.37</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1388,13 +1387,13 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.6307443868909748</v>
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>3.63</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,13 +1401,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.5184059702554773</v>
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>3.52</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1416,13 +1415,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.6987100499774952</v>
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>2.7</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1430,13 +1429,13 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3.5742257843180303</v>
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>3.57</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,13 +1443,13 @@
         <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.0042887973751786</v>
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,13 +1457,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.6500909226181628</v>
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>2.65</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,13 +1471,13 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.5810274842266039</v>
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2.58</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,13 +1485,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.7466082719582969</v>
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>3.75</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1500,13 +1499,13 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.9811113590757843</v>
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>1.98</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,13 +1513,13 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.3765356762623739</v>
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>1.38</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,13 +1527,13 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.5992973699724899</v>
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>1.6</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,13 +1541,13 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.3923620780501742</v>
+        <v>38</v>
+      </c>
+      <c r="C23">
+        <v>1.39</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1556,13 +1555,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.9418649727692312</v>
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>2.94</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,13 +1569,13 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3.700200197692638</v>
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1584,13 +1583,13 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3.1062964166635174</v>
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>3.11</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,13 +1597,13 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.7473913643027084</v>
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>2.75</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,13 +1611,13 @@
         <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3.9064884950002621</v>
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>3.91</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,13 +1625,13 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3.3336298972331964</v>
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>3.33</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1640,13 +1639,13 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.0272977918411286</v>
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>2.0299999999999998</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,13 +1653,13 @@
         <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.6489229809638626</v>
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>1.65</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,13 +1667,13 @@
         <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3.2632431597764406</v>
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>3.26</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,13 +1681,13 @@
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2.1903956275501182</v>
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>2.19</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1695,13 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3.3219888642760598</v>
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>3.32</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,13 +1709,13 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.8463229308994675</v>
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>1.85</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,13 +1723,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3.6453478682401519</v>
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>3.65</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,13 +1737,13 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3.7233787654317521</v>
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>3.72</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1752,13 +1751,13 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3.6057100853457431</v>
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>3.61</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1766,13 +1765,13 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2.5222920078393338</v>
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>2.52</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,13 +1779,13 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.8464153568351893</v>
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>1.85</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,13 +1793,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3.1804957084016952</v>
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>3.18</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1807,13 @@
         <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2.1776689923030101</v>
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>2.1800000000000002</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,13 +1821,13 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3.3581139190448552</v>
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>3.36</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,13 +1835,13 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.2543432119743341</v>
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>1.25</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1849,13 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2.5332733732729995</v>
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>2.5299999999999998</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,11 +1865,11 @@
       <c r="B46" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="1">
-        <v>3.1050911811002297</v>
+      <c r="C46">
+        <v>3.11</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,13 +1877,13 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1.7917965673031511</v>
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>1.79</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,13 +1891,13 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1.1979772380440052</v>
+        <v>62</v>
+      </c>
+      <c r="C48">
+        <v>1.2</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,13 +1905,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2.1441902228287026</v>
+        <v>63</v>
+      </c>
+      <c r="C49">
+        <v>2.14</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,13 +1919,13 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1.1579663644465525</v>
+        <v>64</v>
+      </c>
+      <c r="C50">
+        <v>1.1599999999999999</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,13 +1933,13 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3.4734481104385346</v>
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <v>3.47</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1948,13 +1947,13 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2.7003350507915109</v>
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>2.7</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1962,13 +1961,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3.1677228872392398</v>
+        <v>67</v>
+      </c>
+      <c r="C53">
+        <v>3.17</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,13 +1975,13 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2.2293917811575188</v>
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>2.23</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,13 +1989,13 @@
         <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.4069818664325542</v>
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>1.41</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,13 +2003,13 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2.2227387506688236</v>
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>2.2200000000000002</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,13 +2017,13 @@
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1.5205285685535881</v>
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>1.52</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,13 +2031,13 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1.6156836371845797</v>
+        <v>72</v>
+      </c>
+      <c r="C58">
+        <v>1.62</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,13 +2045,13 @@
         <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2.5145983264048408</v>
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>2.5099999999999998</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,13 +2059,13 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2.0467089504502334</v>
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>2.0499999999999998</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,13 +2073,13 @@
         <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.3915628936508928</v>
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>1.39</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2088,13 +2087,13 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3.0787678173985213</v>
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>3.08</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,13 +2101,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1.3920011694968464</v>
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>1.39</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,13 +2115,13 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1.0316946757876571</v>
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>1.03</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2129,13 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1">
-        <v>3.006357667241347</v>
+        <v>79</v>
+      </c>
+      <c r="C65">
+        <v>3.01</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,13 +2143,13 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1.5105384321980528</v>
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>1.51</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2157,13 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2.0306473912862355</v>
+        <v>81</v>
+      </c>
+      <c r="C67">
+        <v>2.0299999999999998</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,13 +2171,13 @@
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="1">
-        <v>3.7491901327195767</v>
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>3.75</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,13 +2185,13 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3.4284820959101636</v>
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>3.43</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,13 +2199,13 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2.2669320819686511</v>
+        <v>84</v>
+      </c>
+      <c r="C70">
+        <v>2.27</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2213,13 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.4431651734149984</v>
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>1.44</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2227,13 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2.6034049529420802</v>
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,13 +2241,13 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2.481618345330161</v>
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>2.48</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2255,13 @@
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2.7923581752109703</v>
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>2.79</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,13 +2269,13 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2.1036636022214372</v>
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>2.1</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2283,13 @@
         <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1.2975462148758534</v>
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>1.3</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,13 +2297,13 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2.1047842052549948</v>
+        <v>91</v>
+      </c>
+      <c r="C77">
+        <v>2.1</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2312,13 +2311,13 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="1">
-        <v>3.0422474550530891</v>
+        <v>92</v>
+      </c>
+      <c r="C78">
+        <v>3.04</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,13 +2325,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2.8616321857355889</v>
+        <v>93</v>
+      </c>
+      <c r="C79">
+        <v>2.86</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,13 +2339,13 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3.4242613836748692</v>
+        <v>94</v>
+      </c>
+      <c r="C80">
+        <v>3.42</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,13 +2353,13 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2.2824076532351336</v>
+        <v>95</v>
+      </c>
+      <c r="C81">
+        <v>2.2799999999999998</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,13 +2367,13 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2.6627342987345219</v>
+        <v>96</v>
+      </c>
+      <c r="C82">
+        <v>2.66</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,13 +2381,13 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2.3455431655528312</v>
+        <v>97</v>
+      </c>
+      <c r="C83">
+        <v>2.35</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,13 +2395,13 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1.8437432749698206</v>
+        <v>98</v>
+      </c>
+      <c r="C84">
+        <v>1.84</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,13 +2409,13 @@
         <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="1">
-        <v>3.3420136497511295</v>
+        <v>99</v>
+      </c>
+      <c r="C85">
+        <v>3.34</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,13 +2423,13 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2.2679170452765298</v>
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>2.27</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,13 +2437,13 @@
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.3629502051557219</v>
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>1.36</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,13 +2451,13 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.6570066817139129</v>
+        <v>102</v>
+      </c>
+      <c r="C88">
+        <v>1.66</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,13 +2465,13 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" s="1">
-        <v>3.7477995824671968</v>
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>3.75</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,13 +2479,13 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="1">
-        <v>2.4626594720588595</v>
+        <v>104</v>
+      </c>
+      <c r="C90">
+        <v>2.46</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2493,13 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2.4674192590048323</v>
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>2.4700000000000002</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2508,13 +2507,13 @@
         <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1.5592340637611233</v>
+        <v>106</v>
+      </c>
+      <c r="C92">
+        <v>1.56</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,13 +2521,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="1">
-        <v>3.1214676209529681</v>
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>3.12</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2535,13 @@
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
-      </c>
-      <c r="C94" s="1">
-        <v>2.0808094245876525</v>
+        <v>107</v>
+      </c>
+      <c r="C94">
+        <v>2.08</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,13 +2549,13 @@
         <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="1">
-        <v>2.794035632962951</v>
+        <v>108</v>
+      </c>
+      <c r="C95">
+        <v>2.79</v>
       </c>
       <c r="D95" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,13 +2563,13 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1.7267319993875143</v>
+        <v>109</v>
+      </c>
+      <c r="C96">
+        <v>1.73</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2578,13 +2577,13 @@
         <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="1">
-        <v>3.0960565041807517</v>
+        <v>110</v>
+      </c>
+      <c r="C97">
+        <v>3.1</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,13 +2591,13 @@
         <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1.3027311272558246</v>
+        <v>111</v>
+      </c>
+      <c r="C98">
+        <v>1.3</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,13 +2605,13 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="1">
-        <v>3.2887493575588431</v>
+        <v>112</v>
+      </c>
+      <c r="C99">
+        <v>3.29</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2622,11 +2621,11 @@
       <c r="B100" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="1">
-        <v>2.5608034676585545</v>
+      <c r="C100">
+        <v>2.56</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,13 +2633,13 @@
         <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1.4519625656641915</v>
+        <v>74</v>
+      </c>
+      <c r="C101">
+        <v>1.45</v>
       </c>
       <c r="D101" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/grades.xlsx
+++ b/Data/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwrobel/Code/Python4Statistics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ABFFB0E-580D-084B-94C9-42233E66333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1F71DE7F-0349-1D44-B19A-0EA2027457B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16720" xr2:uid="{2B85907A-0B02-1448-B12F-135ED482278A}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="25060" windowHeight="16140" xr2:uid="{77072B30-B43C-464B-8E46-8E8D20A965F7}"/>
   </bookViews>
   <sheets>
     <sheet name="grades" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>Matthew Ortega</t>
-  </si>
-  <si>
-    <t>Summer Baker</t>
   </si>
   <si>
     <t>Lisa Chen</t>
@@ -1221,10 +1218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE15663B-9D9D-064C-8BE7-BF665E0A1924}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFBF617-A287-CA4D-978E-EEFAF76BBE60}">
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2042,16 +2041,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
       </c>
       <c r="C59">
-        <v>2.5099999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60">
         <v>2.0499999999999998</v>
@@ -2073,7 +2072,7 @@
         <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61">
         <v>1.39</v>
@@ -2087,7 +2086,7 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>3.08</v>
@@ -2101,7 +2100,7 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>1.39</v>
@@ -2115,7 +2114,7 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64">
         <v>1.03</v>
@@ -2129,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>3.01</v>
@@ -2143,10 +2142,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66">
-        <v>1.51</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -2157,7 +2153,7 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67">
         <v>2.0299999999999998</v>
@@ -2171,7 +2167,7 @@
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>3.75</v>
@@ -2185,7 +2181,7 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <v>3.43</v>
@@ -2199,7 +2195,7 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <v>2.27</v>
@@ -2213,7 +2209,7 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71">
         <v>1.44</v>
@@ -2227,7 +2223,7 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <v>2.6</v>
@@ -2241,7 +2237,7 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73">
         <v>2.48</v>
@@ -2255,7 +2251,7 @@
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74">
         <v>2.79</v>
@@ -2269,7 +2265,7 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75">
         <v>2.1</v>
@@ -2283,7 +2279,7 @@
         <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76">
         <v>1.3</v>
@@ -2297,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77">
         <v>2.1</v>
@@ -2311,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78">
         <v>3.04</v>
@@ -2325,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79">
         <v>2.86</v>
@@ -2339,7 +2335,7 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80">
         <v>3.42</v>
@@ -2353,7 +2349,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81">
         <v>2.2799999999999998</v>
@@ -2367,7 +2363,7 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82">
         <v>2.66</v>
@@ -2378,267 +2374,286 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C83">
-        <v>2.35</v>
+        <v>2.66</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C84">
-        <v>1.84</v>
+        <v>2.35</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85">
-        <v>3.34</v>
+        <v>1.84</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C86">
-        <v>2.27</v>
+        <v>3.34</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C87">
-        <v>1.36</v>
+        <v>2.27</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C89">
-        <v>3.75</v>
-      </c>
-      <c r="D89" t="s">
-        <v>23</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C90">
-        <v>2.46</v>
+        <v>3.75</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C91">
-        <v>2.4700000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92">
-        <v>1.56</v>
+        <v>2.46</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93">
-        <v>3.12</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C95">
-        <v>2.79</v>
+        <v>3.12</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97">
-        <v>3.1</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C98">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C99">
-        <v>3.29</v>
+        <v>3.1</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C100">
-        <v>2.56</v>
+        <v>1.3</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>61</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102">
+        <v>2.56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>22</v>
       </c>
-      <c r="B101" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101">
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103">
         <v>1.45</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>23</v>
       </c>
     </row>
